--- a/teaching/traditional_assets/database/data/tanzania/tanzania_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/tanzania/tanzania_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,13 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.04425</v>
+        <v>0.0872</v>
       </c>
       <c r="E2">
-        <v>-0.09350000000000001</v>
-      </c>
-      <c r="F2">
-        <v>0.07000000000000001</v>
+        <v>0.0308</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,34 +603,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.04407803508834834</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.02957858773533375</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>85.48</v>
+        <v>64</v>
       </c>
       <c r="L2">
-        <v>0.165118120883154</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="M2">
-        <v>19.57</v>
+        <v>19</v>
       </c>
       <c r="N2">
-        <v>0.03105363376705807</v>
+        <v>0.08656036446469248</v>
       </c>
       <c r="O2">
-        <v>0.2289424426766495</v>
+        <v>0.296875</v>
       </c>
       <c r="P2">
-        <v>19.57</v>
+        <v>19</v>
       </c>
       <c r="Q2">
-        <v>0.03105363376705807</v>
+        <v>0.08656036446469248</v>
       </c>
       <c r="R2">
-        <v>0.2289424426766495</v>
+        <v>0.296875</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,61 +639,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>292.829</v>
+        <v>131.9</v>
       </c>
       <c r="V2">
-        <v>0.4646604252618216</v>
+        <v>0.6009111617312073</v>
+      </c>
+      <c r="W2">
+        <v>0.1757276221856123</v>
       </c>
       <c r="X2">
-        <v>0.0719795542126855</v>
+        <v>0.09656307831249362</v>
+      </c>
+      <c r="Y2">
+        <v>0.07916454387311868</v>
       </c>
       <c r="Z2">
-        <v>0.9120703024559308</v>
+        <v>0.8200792602377805</v>
       </c>
       <c r="AA2">
-        <v>-0.01839063556120236</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0654186723749907</v>
+        <v>0.07426244156778396</v>
       </c>
       <c r="AC2">
-        <v>-0.08153394171314537</v>
+        <v>-0.07426244156778396</v>
       </c>
       <c r="AD2">
-        <v>308.58</v>
+        <v>254.5</v>
       </c>
       <c r="AE2">
-        <v>127.5987899244353</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>436.1787899244353</v>
+        <v>254.5</v>
       </c>
       <c r="AG2">
-        <v>143.3497899244353</v>
+        <v>122.6</v>
       </c>
       <c r="AH2">
-        <v>0.409028005850851</v>
+        <v>0.5369198312236287</v>
       </c>
       <c r="AI2">
-        <v>0.3642171968927049</v>
+        <v>0.3773165307635286</v>
       </c>
       <c r="AJ2">
-        <v>0.1853142380640275</v>
+        <v>0.3583747442268342</v>
       </c>
       <c r="AK2">
-        <v>0.1584413630385124</v>
+        <v>0.2259491338002211</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>114.2465753424657</v>
-      </c>
-      <c r="AP2">
-        <v>53.07285817268986</v>
       </c>
     </row>
     <row r="3">
@@ -716,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.108</v>
+        <v>0.0872</v>
       </c>
       <c r="E3">
-        <v>0.024</v>
+        <v>0.0308</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -728,34 +725,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-0.007655683301128982</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.005145436996159389</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>45.3</v>
+        <v>64</v>
       </c>
       <c r="L3">
-        <v>0.1655701754385965</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="M3">
-        <v>5.67</v>
+        <v>19</v>
       </c>
       <c r="N3">
-        <v>0.05240295748613678</v>
+        <v>0.08656036446469248</v>
       </c>
       <c r="O3">
-        <v>0.1251655629139073</v>
+        <v>0.296875</v>
       </c>
       <c r="P3">
-        <v>5.67</v>
+        <v>19</v>
       </c>
       <c r="Q3">
-        <v>0.05240295748613678</v>
+        <v>0.08656036446469248</v>
       </c>
       <c r="R3">
-        <v>0.1251655629139073</v>
+        <v>0.296875</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -764,305 +761,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>138.7</v>
+        <v>131.9</v>
       </c>
       <c r="V3">
-        <v>1.2818853974122</v>
+        <v>0.6009111617312073</v>
       </c>
       <c r="W3">
-        <v>0.1311522872032426</v>
+        <v>0.1757276221856123</v>
       </c>
       <c r="X3">
-        <v>0.1003375368147007</v>
+        <v>0.09656307831249362</v>
       </c>
       <c r="Y3">
-        <v>0.03081475038854196</v>
+        <v>0.07916454387311868</v>
       </c>
       <c r="Z3">
-        <v>0.5997067555538205</v>
+        <v>0.8200792602377805</v>
       </c>
       <c r="AA3">
-        <v>-0.003085753326873344</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.06724582857266509</v>
+        <v>0.07426244156778396</v>
       </c>
       <c r="AC3">
-        <v>-0.07033158189953843</v>
+        <v>-0.07426244156778396</v>
       </c>
       <c r="AD3">
-        <v>153</v>
+        <v>254.5</v>
       </c>
       <c r="AE3">
-        <v>16.22297475594445</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>169.2229747559444</v>
+        <v>254.5</v>
       </c>
       <c r="AG3">
-        <v>30.52297475594446</v>
+        <v>122.6</v>
       </c>
       <c r="AH3">
-        <v>0.6099818333532538</v>
+        <v>0.5369198312236287</v>
       </c>
       <c r="AI3">
-        <v>0.3172397567490762</v>
+        <v>0.3773165307635286</v>
       </c>
       <c r="AJ3">
-        <v>0.2200282599882505</v>
+        <v>0.3583747442268342</v>
       </c>
       <c r="AK3">
-        <v>0.07732758594762995</v>
+        <v>0.2259491338002211</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>133.0434782608696</v>
-      </c>
-      <c r="AP3">
-        <v>26.54171717908214</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Tanzania</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>DCB Commercial Bank Plc (DAR:DCB)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Bank (Money Center)</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>-0.0195</v>
-      </c>
-      <c r="E4">
-        <v>-0.211</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>-0.005686866186292581</v>
-      </c>
-      <c r="J4">
-        <v>-0.003603186379939346</v>
-      </c>
-      <c r="K4">
-        <v>0.48</v>
-      </c>
-      <c r="L4">
-        <v>0.05933250927070458</v>
-      </c>
-      <c r="M4">
-        <v>-0</v>
-      </c>
-      <c r="N4">
-        <v>-0</v>
-      </c>
-      <c r="O4">
-        <v>-0</v>
-      </c>
-      <c r="P4">
-        <v>-0</v>
-      </c>
-      <c r="Q4">
-        <v>-0</v>
-      </c>
-      <c r="R4">
-        <v>-0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.829</v>
-      </c>
-      <c r="V4">
-        <v>0.06966386554621848</v>
-      </c>
-      <c r="X4">
-        <v>0.0719795542126855</v>
-      </c>
-      <c r="Z4">
-        <v>5.103992306251985</v>
-      </c>
-      <c r="AA4">
-        <v>-0.01839063556120236</v>
-      </c>
-      <c r="AB4">
-        <v>0.06314330615194301</v>
-      </c>
-      <c r="AC4">
-        <v>-0.08153394171314537</v>
-      </c>
-      <c r="AD4">
-        <v>4.58</v>
-      </c>
-      <c r="AE4">
-        <v>1.585033737235535</v>
-      </c>
-      <c r="AF4">
-        <v>6.165033737235535</v>
-      </c>
-      <c r="AG4">
-        <v>5.336033737235535</v>
-      </c>
-      <c r="AH4">
-        <v>0.3412688748279615</v>
-      </c>
-      <c r="AI4">
-        <v>0.330298558471753</v>
-      </c>
-      <c r="AJ4">
-        <v>0.3095859417882164</v>
-      </c>
-      <c r="AK4">
-        <v>0.2991715431719398</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>16.90036900369003</v>
-      </c>
-      <c r="AP4">
-        <v>19.69016139201305</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Tanzania</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>NMB Bank Plc (DAR:NMB)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Bank (Money Center)</t>
-        </is>
-      </c>
-      <c r="F5">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>-0.08761930629767398</v>
-      </c>
-      <c r="J5">
-        <v>-0.06198599860420552</v>
-      </c>
-      <c r="K5">
-        <v>39.7</v>
-      </c>
-      <c r="L5">
-        <v>0.1682203389830509</v>
-      </c>
-      <c r="M5">
-        <v>13.9</v>
-      </c>
-      <c r="N5">
-        <v>0.02724955891001764</v>
-      </c>
-      <c r="O5">
-        <v>0.3501259445843828</v>
-      </c>
-      <c r="P5">
-        <v>13.9</v>
-      </c>
-      <c r="Q5">
-        <v>0.02724955891001764</v>
-      </c>
-      <c r="R5">
-        <v>0.3501259445843828</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>153.3</v>
-      </c>
-      <c r="V5">
-        <v>0.3005293079788277</v>
-      </c>
-      <c r="X5">
-        <v>0.0717947555697655</v>
-      </c>
-      <c r="Z5">
-        <v>2.149542948173382</v>
-      </c>
-      <c r="AA5">
-        <v>-0.1332415661851551</v>
-      </c>
-      <c r="AB5">
-        <v>0.0654186723749907</v>
-      </c>
-      <c r="AC5">
-        <v>-0.1986602385601458</v>
-      </c>
-      <c r="AD5">
-        <v>151</v>
-      </c>
-      <c r="AE5">
-        <v>109.7907814312553</v>
-      </c>
-      <c r="AF5">
-        <v>260.7907814312553</v>
-      </c>
-      <c r="AG5">
-        <v>107.4907814312553</v>
-      </c>
-      <c r="AH5">
-        <v>0.3382979634898014</v>
-      </c>
-      <c r="AI5">
-        <v>0.4040193739916788</v>
-      </c>
-      <c r="AJ5">
-        <v>0.1740485523150902</v>
-      </c>
-      <c r="AK5">
-        <v>0.2183925125917228</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>117.96875</v>
-      </c>
-      <c r="AP5">
-        <v>83.9771729931682</v>
       </c>
     </row>
   </sheetData>
